--- a/大数据平台梳理结果-模板.xlsx
+++ b/大数据平台梳理结果-模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10950" tabRatio="760" firstSheet="43" activeTab="46"/>
+    <workbookView windowWidth="23445" windowHeight="9915" tabRatio="760" firstSheet="38" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,18 @@
     <sheet name="stg_sql与stg_shell表名不一致" sheetId="27" r:id="rId32"/>
     <sheet name="stg_sql与stg_shell字段数不一致" sheetId="28" r:id="rId33"/>
     <sheet name="stg_sql与stg_shell字段名不一致" sheetId="29" r:id="rId34"/>
-    <sheet name="测试环境与生产环境表名不一致" sheetId="36" r:id="rId35"/>
-    <sheet name="测试环境与生产环境字段数不一致" sheetId="37" r:id="rId36"/>
-    <sheet name="测试环境与生产环境表注释不一致" sheetId="38" r:id="rId37"/>
-    <sheet name="测试环境与生产环境字段名不一致" sheetId="39" r:id="rId38"/>
-    <sheet name="测试环境与生产环境字段类型不一致" sheetId="40" r:id="rId39"/>
-    <sheet name="测试环境与生产环境字段注释不一致" sheetId="41" r:id="rId40"/>
-    <sheet name="生产环境与源表元数据表名不一致" sheetId="42" r:id="rId41"/>
-    <sheet name="生产环境与源表元数据表字段数不一致" sheetId="43" r:id="rId42"/>
-    <sheet name="生产环境与源表元数据表注释不一致" sheetId="44" r:id="rId43"/>
-    <sheet name="生产环境与源表元数据表字段名不一致" sheetId="45" r:id="rId44"/>
-    <sheet name="生产环境与源表元数据表字段类型不一致" sheetId="46" r:id="rId45"/>
-    <sheet name="生产环境与源表元数据表字段注释不一致" sheetId="47" r:id="rId46"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据表名不一致" sheetId="36" r:id="rId35"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据字段数不一致" sheetId="37" r:id="rId36"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据表注释不一致" sheetId="38" r:id="rId37"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据字段名不一致" sheetId="39" r:id="rId38"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据字段类型不一致" sheetId="40" r:id="rId39"/>
+    <sheet name="测试环境hive元数据与生产环境hive元数据字段注释不一致" sheetId="41" r:id="rId40"/>
+    <sheet name="生产源表元数据和stg_shell源表表名不一致" sheetId="42" r:id="rId41"/>
+    <sheet name="生产源表元数据和stg_shell源表表字段数不一致" sheetId="43" r:id="rId42"/>
+    <sheet name="生产源表元数据和stg_shell源表表注释不一致" sheetId="44" r:id="rId43"/>
+    <sheet name="生产源表元数据和stg_shell源表表字段名不一致" sheetId="45" r:id="rId44"/>
+    <sheet name="生产源表元数据和stg_shell源表表字段类型不一致" sheetId="46" r:id="rId45"/>
+    <sheet name="生产源表元数据和stg_shell源表表字段注释不一致" sheetId="47" r:id="rId46"/>
     <sheet name="其他问题" sheetId="30" r:id="rId47"/>
   </sheets>
   <definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="207">
   <si>
     <t>序号</t>
   </si>
@@ -337,49 +337,49 @@
     <t>生产ODS表与生产源表元数据表名,字段名,字段类型,注释核对</t>
   </si>
   <si>
-    <t>生产环境与源表元数据表名不一致</t>
+    <t>生产源表元数据和stg_shell源表表名不一致</t>
   </si>
   <si>
     <t>以有调度的ODS_SHELL的内容为基准：保证字段属性与源系统转义正确。</t>
   </si>
   <si>
-    <t>生产环境与源表元数据表字段数不一致</t>
-  </si>
-  <si>
-    <t>生产环境与源表元数据表注释不一致</t>
-  </si>
-  <si>
-    <t>生产环境与源表元数据表字段名不一致</t>
-  </si>
-  <si>
-    <t>生产环境与源表元数据表字段类型不一致</t>
-  </si>
-  <si>
-    <t>生产环境与源表元数据表字段注释不一致</t>
+    <t>生产源表元数据和stg_shell源表表字段数不一致</t>
+  </si>
+  <si>
+    <t>生产源表元数据和stg_shell源表表注释不一致</t>
+  </si>
+  <si>
+    <t>生产源表元数据和stg_shell源表表字段名不一致</t>
+  </si>
+  <si>
+    <t>生产源表元数据和stg_shell源表表字段类型不一致</t>
+  </si>
+  <si>
+    <t>生产源表元数据和stg_shell源表表字段注释不一致</t>
   </si>
   <si>
     <t>生产ODS表与测试ODS表元数据表名,字段名,字段类型,注释核对</t>
   </si>
   <si>
-    <t>测试环境与生产环境表名不一致</t>
+    <t>测试环境hive元数据与生产环境hive元数据表名不一致</t>
   </si>
   <si>
     <t>以有调度的ODS_SHELL的内容为基准：区分生产和测试的差距，保证开发顺利。</t>
   </si>
   <si>
-    <t>测试环境与生产环境字段数不一致</t>
-  </si>
-  <si>
-    <t>测试环境与生产环境表注释不一致</t>
-  </si>
-  <si>
-    <t>测试环境与生产环境字段名不一致</t>
-  </si>
-  <si>
-    <t>测试环境与生产环境字段类型不一致</t>
-  </si>
-  <si>
-    <t>测试环境与生产环境字段注释不一致</t>
+    <t>测试环境hive元数据与生产环境hive元数据字段数不一致</t>
+  </si>
+  <si>
+    <t>测试环境hive元数据与生产环境hive元数据表注释不一致</t>
+  </si>
+  <si>
+    <t>测试环境hive元数据与生产环境hive元数据字段名不一致</t>
+  </si>
+  <si>
+    <t>测试环境hive元数据与生产环境hive元数据字段类型不一致</t>
+  </si>
+  <si>
+    <t>测试环境hive元数据与生产环境hive元数据字段注释不一致</t>
   </si>
   <si>
     <t>其他问题</t>
@@ -442,6 +442,9 @@
     <t>调度文件名</t>
   </si>
   <si>
+    <t>是否有调度</t>
+  </si>
+  <si>
     <t>job名</t>
   </si>
   <si>
@@ -514,12 +517,24 @@
     <t>字段名是否匹配</t>
   </si>
   <si>
+    <t>ods表字段名</t>
+  </si>
+  <si>
+    <t>源表字段名</t>
+  </si>
+  <si>
     <t>ods字段类型</t>
   </si>
   <si>
     <t>源表字段类型</t>
   </si>
   <si>
+    <t>源表字段长度</t>
+  </si>
+  <si>
+    <t>源表字段精度</t>
+  </si>
+  <si>
     <t>字段类型是否匹配</t>
   </si>
   <si>
@@ -706,15 +721,9 @@
     <t>源数据表注释</t>
   </si>
   <si>
-    <t>hive元数据字段顺序号</t>
-  </si>
-  <si>
     <t>源数据表字段名</t>
   </si>
   <si>
-    <t>源数据表字段顺序号</t>
-  </si>
-  <si>
     <t>hive元数据字段类型</t>
   </si>
   <si>
@@ -722,6 +731,9 @@
   </si>
   <si>
     <t>源数据字段长度</t>
+  </si>
+  <si>
+    <t>源数据字段精度</t>
   </si>
   <si>
     <t>源数据字段注释</t>
@@ -797,7 +809,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -843,14 +855,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -865,21 +869,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -887,7 +876,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,9 +896,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,22 +925,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -945,16 +949,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +975,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,14 +983,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,22 +1006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,7 +1039,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,13 +1081,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1147,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,13 +1165,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,121 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,26 +1393,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,30 +1428,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,6 +1451,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1494,10 +1483,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,16 +1495,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1524,119 +1513,119 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1673,22 +1662,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,16 +1680,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1718,14 +1701,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1733,7 +1710,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1">
@@ -1742,16 +1719,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,27 +1743,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,35 +1758,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,13 +2112,14 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="35.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="64.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
@@ -2199,786 +2141,786 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="1" ht="39.75" customHeight="1" spans="1:8">
-      <c r="A2" s="14">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <f>COUNTA(特例表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:8">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <f>COUNTA(提供的调度文件列表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f>COUNTA(提供的系统简称!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <f>COUNTA(源数据中所有的系统简称!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:8">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <f>COUNTA(数据库梳理过程!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" ht="81" spans="1:8">
-      <c r="A7" s="24">
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="27" spans="1:8">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f>COUNTA(没有调度的ODS表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:8">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="31" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <f>COUNTA(重复调用之azkaban!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:8">
-      <c r="A9" s="30"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f>COUNTA(重复调用之stg_shell!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="33" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <f>COUNTA(重复调用之ods_shell!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" ht="40.5" spans="1:8">
-      <c r="A11" s="34"/>
-      <c r="B11" s="25"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f>COUNTA(重复调用之hive_file!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:8">
-      <c r="A12" s="36">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>COUNTA(stg_sql与stg_shell表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:8">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <f>COUNTA(stg_sql与stg_shell字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <f>COUNTA(stg_sql与stg_shell字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="32" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="43">
+      <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <f>COUNTA(ods_sql与stg_sql表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="43"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <f>COUNTA(ods_sql与stg_sql表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <f>COUNTA(ods_sql与stg_sql字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="43"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <f>COUNTA(ods_sql与stg_sql字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="43"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <f>COUNTA(ods_sql与stg_sql字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="43"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <f>COUNTA(ods_sql与stg_sql字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="43">
+      <c r="A21" s="38">
         <v>4</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <f>COUNTA(ods_sql与hive元数据表名不一致!C:C)-1</f>
         <v>0</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="43"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <f>COUNTA(ods_sql与hive元数据表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="43"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <f>COUNTA(ods_sql与hive元数据字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="43"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <f>COUNTA(ods_sql与hive元数据字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" ht="67.5" spans="1:8">
-      <c r="A25" s="43"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="31" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" ht="27" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <f>COUNTA(ods_sql与hive元数据字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="46" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="43"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <f>COUNTA(ods_sql与hive元数据字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="49">
+      <c r="A27" s="40">
         <v>5</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <f>COUNTA(ods_sql与源数据表名不一致!D:D)-1</f>
         <v>0</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="51"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <f>COUNTA(ods_sql与源数据表注释不一致!D:D)-1</f>
         <v>0</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" ht="40.5" spans="1:8">
-      <c r="A29" s="51"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="26" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" ht="27" spans="1:8">
+      <c r="A29" s="41"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <f>COUNTA(ods_sql与源数据字段名不一致!D:D)-1</f>
         <v>0</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="46" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="51"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="26" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <f>COUNTA(ods_sql与源数据字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="29" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="51"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <f>COUNTA(ods_sql与源数据字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" ht="27" spans="1:8">
-      <c r="A32" s="52"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="26" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <f>COUNTA(ods_sql与源数据字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="46" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="53">
+      <c r="A33" s="43">
         <v>6</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <f>COUNTA(ods_sql与hive_file表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="55"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <f>COUNTA(ods_sql与hive_file字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="56">
+      <c r="A35" s="45">
         <v>7</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="17">
-        <f>COUNTA(生产环境与源表元数据表名不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表名不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="17">
-        <f>COUNTA(生产环境与源表元数据表字段数不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="D36" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表字段数不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="17">
-        <f>COUNTA(生产环境与源表元数据表注释不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="D37" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表注释不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="17">
-        <f>COUNTA(生产环境与源表元数据表字段名不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="D38" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表字段名不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="60" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="17">
-        <f>COUNTA(生产环境与源表元数据表字段类型不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
+      <c r="D39" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表字段类型不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="58" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="17">
-        <f>COUNTA(生产环境与源表元数据表字段注释不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="D40" s="15">
+        <f>COUNTA(生产源表元数据和stg_shell源表表字段注释不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="56">
+      <c r="A41" s="45">
         <v>8</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="17">
-        <f>COUNTA(测试环境与生产环境表名不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="59" t="s">
+      <c r="D41" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据表名不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="17">
-        <f>COUNTA(测试环境与生产环境字段数不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
+      <c r="D42" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段数不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="17">
-        <f>COUNTA(测试环境与生产环境表注释不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="59"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="D43" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据表注释不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="58" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="17">
-        <f>COUNTA(测试环境与生产环境字段名不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="59"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
+      <c r="D44" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段名不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="17">
-        <f>COUNTA(测试环境与生产环境字段类型不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="59"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
+      <c r="D45" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段类型不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="58" t="s">
+      <c r="A46" s="44"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="17">
-        <f>COUNTA(测试环境与生产环境字段注释不一致!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
+      <c r="D46" s="15">
+        <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段注释不一致!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="64">
+      <c r="A47" s="48">
         <v>9</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="15">
         <f>COUNTA(其他问题!B:B)-1</f>
         <v>6</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3044,18 +2986,18 @@
     <hyperlink ref="C10" location="重复调用之ods_shell!A1" display="重复调用之ods_shell"/>
     <hyperlink ref="C11" location="重复调用之hive_file!A1" display="重复调用之hive_file"/>
     <hyperlink ref="E7" location="提供的调度文件列表!A1" display="有ODS_SQL文件，但没有调度。注意:可能没有提供调度文件,请看提供的调度文件列表"/>
-    <hyperlink ref="C35" location="生产环境与源表元数据表名不一致!A1" display="生产环境与源表元数据表名不一致"/>
-    <hyperlink ref="C36" location="生产环境与源表元数据表字段数不一致!A1" display="生产环境与源表元数据表字段数不一致"/>
-    <hyperlink ref="C37" location="生产环境与源表元数据表注释不一致!A1" display="生产环境与源表元数据表注释不一致"/>
-    <hyperlink ref="C38" location="生产环境与源表元数据表字段名不一致!A1" display="生产环境与源表元数据表字段名不一致"/>
-    <hyperlink ref="C39" location="生产环境与源表元数据表字段类型不一致!A1" display="生产环境与源表元数据表字段类型不一致"/>
-    <hyperlink ref="C40" location="生产环境与源表元数据表字段注释不一致!A1" display="生产环境与源表元数据表字段注释不一致"/>
-    <hyperlink ref="C41" location="测试环境与生产环境表名不一致!A1" display="测试环境与生产环境表名不一致"/>
-    <hyperlink ref="C42" location="测试环境与生产环境字段数不一致!A1" display="测试环境与生产环境字段数不一致"/>
-    <hyperlink ref="C43" location="测试环境与生产环境表注释不一致!A1" display="测试环境与生产环境表注释不一致"/>
-    <hyperlink ref="C44" location="测试环境与生产环境字段名不一致!A1" display="测试环境与生产环境字段名不一致"/>
-    <hyperlink ref="C45" location="测试环境与生产环境字段类型不一致!A1" display="测试环境与生产环境字段类型不一致"/>
-    <hyperlink ref="C46" location="测试环境与生产环境字段注释不一致!A1" display="测试环境与生产环境字段注释不一致"/>
+    <hyperlink ref="C35" location="生产源表元数据和stg_shell源表表名不一致!A1" display="生产源表元数据和stg_shell源表表名不一致"/>
+    <hyperlink ref="C36" location="生产源表元数据和stg_shell源表表字段数不一致!A1" display="生产源表元数据和stg_shell源表表字段数不一致"/>
+    <hyperlink ref="C37" location="生产源表元数据和stg_shell源表表注释不一致!A1" display="生产源表元数据和stg_shell源表表注释不一致"/>
+    <hyperlink ref="C38" location="生产源表元数据和stg_shell源表表字段名不一致!A1" display="生产源表元数据和stg_shell源表表字段名不一致"/>
+    <hyperlink ref="C39" location="生产源表元数据和stg_shell源表表字段类型不一致!A1" display="生产源表元数据和stg_shell源表表字段类型不一致"/>
+    <hyperlink ref="C40" location="生产源表元数据和stg_shell源表表字段注释不一致!A1" display="生产源表元数据和stg_shell源表表字段注释不一致"/>
+    <hyperlink ref="C41" location="测试环境hive元数据与生产环境hive元数据表名不一致!A1" display="测试环境hive元数据与生产环境hive元数据表名不一致"/>
+    <hyperlink ref="C42" location="测试环境hive元数据与生产环境hive元数据字段数不一致!A1" display="测试环境hive元数据与生产环境hive元数据字段数不一致"/>
+    <hyperlink ref="C43" location="测试环境hive元数据与生产环境hive元数据表注释不一致!A1" display="测试环境hive元数据与生产环境hive元数据表注释不一致"/>
+    <hyperlink ref="C44" location="测试环境hive元数据与生产环境hive元数据字段名不一致!A1" display="测试环境hive元数据与生产环境hive元数据字段名不一致"/>
+    <hyperlink ref="C45" location="测试环境hive元数据与生产环境hive元数据字段类型不一致!A1" display="测试环境hive元数据与生产环境hive元数据字段类型不一致"/>
+    <hyperlink ref="C46" location="测试环境hive元数据与生产环境hive元数据字段注释不一致!A1" display="测试环境hive元数据与生产环境hive元数据字段注释不一致"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3065,24 +3007,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="5" max="6" width="14.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
+    <row r="1" ht="18.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3093,13 +3035,16 @@
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3139,16 +3084,16 @@
         <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3191,31 +3136,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3261,40 +3206,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3340,40 +3285,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3423,22 +3368,22 @@
         <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +3398,7 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3477,59 +3422,65 @@
     <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.125" style="5" customWidth="1"/>
     <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="22.875" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="15" max="17" width="17.375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="22.875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:16">
+    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3578,49 +3529,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3659,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3715,34 +3666,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3825,34 +3776,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3898,40 +3849,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3978,43 +3929,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4061,43 +4012,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4135,28 +4086,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4197,37 +4148,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4268,37 +4219,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4345,49 +4296,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4430,46 +4381,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4512,46 +4463,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4632,16 +4583,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4682,25 +4633,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4671,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4734,20 +4685,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4790,31 +4741,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4859,37 +4810,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4924,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4901,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4966,22 +4917,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5018,22 +4969,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5053,7 +5004,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5073,28 +5024,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5065,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5132,31 +5083,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5205,10 +5156,10 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5226,31 +5177,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5270,7 +5221,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5289,25 +5240,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5348,34 +5299,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5417,34 +5368,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5459,84 +5410,7 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="31.875" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="25.75" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="说明!A1" display="序号"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5555,56 +5429,127 @@
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="11" width="20.125" customWidth="1"/>
-    <col min="12" max="12" width="26.25" customWidth="1"/>
-    <col min="13" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:15">
+    <row r="1" ht="18.75" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="说明!A1" display="序号"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="31.875" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="11" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="26.25" customWidth="1"/>
+    <col min="13" max="15" width="20.125" customWidth="1"/>
+    <col min="16" max="16" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5566,7 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -5647,43 +5592,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5700,8 +5645,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -5711,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -5720,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5728,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5736,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5744,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5752,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5760,7 +5705,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5899,26 +5844,26 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="16384" width="9.75" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="16384" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:7">
+    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5939,6 +5884,9 @@
       </c>
       <c r="G1" s="4" t="s">
         <v>101</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5953,23 +5901,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="6" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:7">
+    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5983,13 +5931,16 @@
         <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>101</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/大数据平台梳理结果-模板.xlsx
+++ b/大数据平台梳理结果-模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9915" tabRatio="760" firstSheet="38" activeTab="39"/>
+    <workbookView windowWidth="23445" windowHeight="9915" tabRatio="760" firstSheet="43" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -741,73 +741,16 @@
   <si>
     <t>描述</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\SRC_TO_BIGDATA\jyzx\stg_sql\t_stg_jyzx_lc_stibadjustingfactor_hv，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>脚本少了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>create</t>
-    </r>
-  </si>
-  <si>
-    <t>\SRC_TO_BIGDATA\scfx\stg_shell\t_stg_scfx_his_rpt_rm_result_hv.sh,包含return关键字</t>
-  </si>
-  <si>
-    <t>\SRC_TO_BIGDATA\pd\stg_shell\t_stg_pd_ora_t_pub_actrevies_status_hv.sh,字段多下划线,还有 :: 这种</t>
-  </si>
-  <si>
-    <t>P_val_tgjs.xlsx中,作业名J_stg_val_tgjs_yhzqxx_sql有2个</t>
-  </si>
-  <si>
-    <t>P_afa.xlsx中,作业名,J_stg_afa_t_basis_sql,J_stg_afa_t_client_groupmember_sql调用的同一个sql文件</t>
-  </si>
-  <si>
-    <t>SRC_TO_BIGDATA\o32\ods_shell\t_ods_o32_tftrenabledetail_hv.sh,没有按规范写HIVE_DATABASE_STG,等信息</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -876,34 +819,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -918,6 +833,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -925,33 +855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,17 +878,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,8 +900,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,6 +925,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,7 +982,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1048,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1108,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,103 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,37 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,6 +1321,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1389,15 +1370,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,26 +1404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1466,15 +1418,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1483,10 +1426,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,133 +1438,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1635,9 +1578,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,6 +1643,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2112,7 +2055,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2123,148 +2066,148 @@
     <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="64.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="9" customWidth="1"/>
     <col min="9" max="16384" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="39.75" customHeight="1" spans="1:8">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" s="8" customFormat="1" ht="39.75" customHeight="1" spans="1:8">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>COUNTA(特例表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" s="9" customFormat="1" spans="1:8">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="14" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:8">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>COUNTA(提供的调度文件列表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:8">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>COUNTA(提供的系统简称!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>COUNTA(源数据中所有的系统简称!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:8">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>COUNTA(数据库梳理过程!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="27" spans="1:8">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>COUNTA(没有调度的ODS表!B:B)-1</f>
         <v>0</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>COUNTA(重复调用之azkaban!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2272,16 +2215,16 @@
         <v>20</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>COUNTA(重复调用之stg_shell!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2289,16 +2232,16 @@
         <v>22</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>COUNTA(重复调用之ods_shell!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2306,16 +2249,16 @@
         <v>24</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="30"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>COUNTA(重复调用之hive_file!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2324,7 +2267,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:8">
       <c r="A12" s="31">
@@ -2333,10 +2276,10 @@
       <c r="B12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>COUNTA(stg_sql与stg_shell表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2344,31 +2287,31 @@
         <v>29</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:8">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>COUNTA(stg_sql与stg_shell字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:8">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>COUNTA(stg_sql与stg_shell字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2376,20 +2319,20 @@
       <c r="F14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>COUNTA(ods_sql与stg_sql表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2397,95 +2340,95 @@
         <v>35</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="38"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>COUNTA(ods_sql与stg_sql表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="38"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>COUNTA(ods_sql与stg_sql字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="38"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>COUNTA(ods_sql与stg_sql字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="38"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>COUNTA(ods_sql与stg_sql字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="38"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>COUNTA(ods_sql与stg_sql字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="38">
         <v>4</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>COUNTA(ods_sql与hive元数据表名不一致!C:C)-1</f>
         <v>0</v>
       </c>
@@ -2493,61 +2436,61 @@
         <v>43</v>
       </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="38"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f>COUNTA(ods_sql与hive元数据表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="38"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f>COUNTA(ods_sql与hive元数据字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="38"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f>COUNTA(ods_sql与hive元数据字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" ht="27" spans="1:8">
       <c r="A25" s="38"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f>COUNTA(ods_sql与hive元数据字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2555,23 +2498,23 @@
       <c r="F25" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="38"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f>COUNTA(ods_sql与hive元数据字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="40">
@@ -2580,10 +2523,10 @@
       <c r="B27" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f>COUNTA(ods_sql与源数据表名不一致!D:D)-1</f>
         <v>0</v>
       </c>
@@ -2591,31 +2534,31 @@
         <v>52</v>
       </c>
       <c r="F27" s="39"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="41"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <f>COUNTA(ods_sql与源数据表注释不一致!D:D)-1</f>
         <v>0</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" ht="27" spans="1:8">
       <c r="A29" s="41"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <f>COUNTA(ods_sql与源数据字段名不一致!D:D)-1</f>
         <v>0</v>
       </c>
@@ -2623,48 +2566,48 @@
       <c r="F29" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="41"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <f>COUNTA(ods_sql与源数据字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="41"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <f>COUNTA(ods_sql与源数据字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="42"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <f>COUNTA(ods_sql与源数据字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2672,8 +2615,8 @@
       <c r="F32" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="43">
@@ -2685,7 +2628,7 @@
       <c r="C33" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <f>COUNTA(ods_sql与hive_file表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2693,23 +2636,23 @@
         <v>63</v>
       </c>
       <c r="F33" s="39"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="44"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <f>COUNTA(ods_sql与hive_file字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="45">
@@ -2721,7 +2664,7 @@
       <c r="C35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2729,8 +2672,8 @@
         <v>67</v>
       </c>
       <c r="F35" s="39"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="45"/>
@@ -2738,14 +2681,14 @@
       <c r="C36" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="45"/>
@@ -2753,14 +2696,14 @@
       <c r="C37" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="45"/>
@@ -2768,14 +2711,14 @@
       <c r="C38" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="45"/>
@@ -2783,14 +2726,14 @@
       <c r="C39" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="44"/>
@@ -2798,14 +2741,14 @@
       <c r="C40" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <f>COUNTA(生产源表元数据和stg_shell源表表字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="45">
@@ -2817,7 +2760,7 @@
       <c r="C41" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据表名不一致!B:B)-1</f>
         <v>0</v>
       </c>
@@ -2825,8 +2768,8 @@
         <v>75</v>
       </c>
       <c r="F41" s="39"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="45"/>
@@ -2834,14 +2777,14 @@
       <c r="C42" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段数不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="45"/>
@@ -2849,14 +2792,14 @@
       <c r="C43" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据表注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="45"/>
@@ -2864,14 +2807,14 @@
       <c r="C44" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段名不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="45"/>
@@ -2879,14 +2822,14 @@
       <c r="C45" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段类型不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="39"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="44"/>
@@ -2894,14 +2837,14 @@
       <c r="C46" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <f>COUNTA(测试环境hive元数据与生产环境hive元数据字段注释不一致!B:B)-1</f>
         <v>0</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="48">
@@ -2910,17 +2853,17 @@
       <c r="B47" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <f>COUNTA(其他问题!B:B)-1</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3015,35 +2958,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="14.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3077,22 +3020,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3118,48 +3061,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:10">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3185,60 +3128,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3264,60 +3207,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:13">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3357,32 +3300,32 @@
     <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3408,78 +3351,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
-    <col min="15" max="17" width="17.375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="22.875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="4" customWidth="1"/>
+    <col min="15" max="17" width="17.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="22.875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:18">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3505,72 +3448,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="22.875" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="22.875" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:16">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3596,32 +3539,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3647,52 +3590,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:11">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3718,20 +3661,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3757,52 +3700,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="29" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.75" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.75" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3828,60 +3771,60 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="31.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="31.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3907,64 +3850,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="22.875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:14">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3990,64 +3933,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="22.875" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4073,40 +4016,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="7" width="26.125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="7" width="26.125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4132,52 +4075,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="11" width="19.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="16.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="11" width="19.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="16.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4203,52 +4146,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="11" width="19.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="11" width="19.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4274,70 +4217,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="11" width="22" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="25.25" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17" style="4" customWidth="1"/>
+    <col min="10" max="11" width="22" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="25.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="25.25" style="4" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4363,63 +4306,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="11" width="19.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="22.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.875" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="11" width="19.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="22.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4445,63 +4388,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="9" width="22" style="5" customWidth="1"/>
-    <col min="10" max="11" width="19.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="22.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.875" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="9" width="22" style="4" customWidth="1"/>
+    <col min="10" max="11" width="19.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="14" width="22.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:15">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4533,20 +4476,20 @@
     <col min="5" max="5" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4570,28 +4513,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4617,40 +4560,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4676,28 +4619,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4723,48 +4666,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4790,56 +4733,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="28.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4874,13 +4817,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4916,22 +4859,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4968,22 +4911,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5023,28 +4966,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5082,31 +5025,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5134,11 +5077,11 @@
     <col min="2" max="2" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5156,7 +5099,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -5176,31 +5119,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5239,25 +5182,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5298,34 +5241,34 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5367,34 +5310,34 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5435,34 +5378,34 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5506,49 +5449,49 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5591,43 +5534,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5643,13 +5586,13 @@
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -5659,54 +5602,6 @@
         <v>200</v>
       </c>
       <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5735,16 +5630,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5779,19 +5674,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5822,13 +5717,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5863,29 +5758,29 @@
     <col min="9" max="16384" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:8">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5917,29 +5812,29 @@
     <col min="8" max="8" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="18.75" spans="1:8">
+    <row r="1" s="4" customFormat="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
